--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H2">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I2">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J2">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>2674.506217920759</v>
+        <v>1293.287598847937</v>
       </c>
       <c r="R2">
-        <v>24070.55596128683</v>
+        <v>11639.58838963144</v>
       </c>
       <c r="S2">
-        <v>0.03955256992788307</v>
+        <v>0.02555187295513224</v>
       </c>
       <c r="T2">
-        <v>0.03955256992788308</v>
+        <v>0.02555187295513224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H3">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I3">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J3">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>10886.34864382888</v>
+        <v>8021.83185150601</v>
       </c>
       <c r="R3">
-        <v>97977.13779445995</v>
+        <v>72196.48666355408</v>
       </c>
       <c r="S3">
-        <v>0.1609953505096373</v>
+        <v>0.1584897500909348</v>
       </c>
       <c r="T3">
-        <v>0.1609953505096373</v>
+        <v>0.1584897500909348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H4">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I4">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J4">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>3574.732778005991</v>
+        <v>3212.185555300714</v>
       </c>
       <c r="R4">
-        <v>32172.59500205392</v>
+        <v>28909.66999770642</v>
       </c>
       <c r="S4">
-        <v>0.05286578405695328</v>
+        <v>0.06346411833722783</v>
       </c>
       <c r="T4">
-        <v>0.05286578405695329</v>
+        <v>0.06346411833722783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H5">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I5">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J5">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>12670.29375234021</v>
+        <v>7632.601966213473</v>
       </c>
       <c r="R5">
-        <v>114032.6437710619</v>
+        <v>68693.41769592125</v>
       </c>
       <c r="S5">
-        <v>0.1873776461196114</v>
+        <v>0.1507996179129142</v>
       </c>
       <c r="T5">
-        <v>0.1873776461196114</v>
+        <v>0.1507996179129142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J6">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>2644.901321140883</v>
+        <v>1735.68000054542</v>
       </c>
       <c r="R6">
-        <v>23804.11189026795</v>
+        <v>15621.12000490878</v>
       </c>
       <c r="S6">
-        <v>0.03911475088590525</v>
+        <v>0.03429235299573534</v>
       </c>
       <c r="T6">
-        <v>0.03911475088590526</v>
+        <v>0.03429235299573535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J7">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>10765.84444542741</v>
@@ -883,10 +883,10 @@
         <v>96892.6000088467</v>
       </c>
       <c r="S7">
-        <v>0.1592132455730546</v>
+        <v>0.2127040340983132</v>
       </c>
       <c r="T7">
-        <v>0.1592132455730546</v>
+        <v>0.2127040340983132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J8">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>3535.163008379215</v>
+        <v>4310.971690552699</v>
       </c>
       <c r="R8">
-        <v>31816.46707541293</v>
+        <v>38798.74521497429</v>
       </c>
       <c r="S8">
-        <v>0.05228059712797689</v>
+        <v>0.08517316724315536</v>
       </c>
       <c r="T8">
-        <v>0.0522805971279769</v>
+        <v>0.08517316724315539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J9">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>12530.04254028644</v>
+        <v>10243.47144183668</v>
       </c>
       <c r="R9">
-        <v>112770.3828625779</v>
+        <v>92191.24297653011</v>
       </c>
       <c r="S9">
-        <v>0.1853035077851939</v>
+        <v>0.2023833531957581</v>
       </c>
       <c r="T9">
-        <v>0.185303507785194</v>
+        <v>0.2023833531957581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H10">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>745.9736996005181</v>
+        <v>213.2337598678127</v>
       </c>
       <c r="R10">
-        <v>6713.763296404663</v>
+        <v>1919.103838810314</v>
       </c>
       <c r="S10">
-        <v>0.01103200909390644</v>
+        <v>0.004212923673544134</v>
       </c>
       <c r="T10">
-        <v>0.01103200909390644</v>
+        <v>0.004212923673544134</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H11">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>3036.422094876104</v>
+        <v>1322.617929877115</v>
       </c>
       <c r="R11">
-        <v>27327.79885388493</v>
+        <v>11903.56136889403</v>
       </c>
       <c r="S11">
-        <v>0.04490484876551318</v>
+        <v>0.02613136114697535</v>
       </c>
       <c r="T11">
-        <v>0.04490484876551318</v>
+        <v>0.02613136114697536</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H12">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>997.0650348928729</v>
+        <v>529.6164626955367</v>
       </c>
       <c r="R12">
-        <v>8973.585314035856</v>
+        <v>4766.548164259831</v>
       </c>
       <c r="S12">
-        <v>0.01474533289584446</v>
+        <v>0.01046379210764708</v>
       </c>
       <c r="T12">
-        <v>0.01474533289584447</v>
+        <v>0.01046379210764708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H13">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>3534.000348223754</v>
+        <v>1258.442759584151</v>
       </c>
       <c r="R13">
-        <v>31806.00313401379</v>
+        <v>11325.98483625736</v>
       </c>
       <c r="S13">
-        <v>0.05226340285234087</v>
+        <v>0.02486343296173603</v>
       </c>
       <c r="T13">
-        <v>0.05226340285234087</v>
+        <v>0.02486343296173603</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H14">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>2.129419600056</v>
+        <v>4.773778440036667</v>
       </c>
       <c r="R14">
-        <v>19.164776400504</v>
+        <v>42.96400596033</v>
       </c>
       <c r="S14">
-        <v>3.149142711752528E-05</v>
+        <v>9.431697970693088E-05</v>
       </c>
       <c r="T14">
-        <v>3.149142711752528E-05</v>
+        <v>9.431697970693088E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H15">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>8.66762022084</v>
+        <v>29.610156299675</v>
       </c>
       <c r="R15">
-        <v>78.00858198756001</v>
+        <v>266.491406697075</v>
       </c>
       <c r="S15">
-        <v>0.0001281831586690537</v>
+        <v>0.0005850167840663438</v>
       </c>
       <c r="T15">
-        <v>0.0001281831586690537</v>
+        <v>0.0005850167840663439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H16">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>2.846172497728</v>
+        <v>11.85680753681667</v>
       </c>
       <c r="R16">
-        <v>25.615552479552</v>
+        <v>106.71126783135</v>
       </c>
       <c r="S16">
-        <v>4.209129744731807E-05</v>
+        <v>0.0002342585207683692</v>
       </c>
       <c r="T16">
-        <v>4.209129744731807E-05</v>
+        <v>0.0002342585207683692</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H17">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>10.08798247464</v>
+        <v>28.173432375095</v>
       </c>
       <c r="R17">
-        <v>90.79184227176002</v>
+        <v>253.560891375855</v>
       </c>
       <c r="S17">
-        <v>0.0001491885229452398</v>
+        <v>0.0005566309963844938</v>
       </c>
       <c r="T17">
-        <v>0.0001491885229452398</v>
+        <v>0.0005566309963844939</v>
       </c>
     </row>
   </sheetData>
